--- a/KnowdgeGraph/租房/南京找房.xlsx
+++ b/KnowdgeGraph/租房/南京找房.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\KnowdgeGraph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\KnowdgeGraph\租房\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A63B445-603D-4A28-93BE-141B94DA6988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17FC350-35A5-4541-AAB7-53146B3F8BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>浦口区：500-1200元/月</t>
   </si>
@@ -61,6 +61,42 @@
   </si>
   <si>
     <t>https://www.douban.com/search?q=%E5%8D%97%E4%BA%AC%E7%A7%9F%E6%88%BF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 奥体附近</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安居客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融城中胜地铁大型超市 精装网红公寓家电配齐可短租拎包入住</t>
+  </si>
+  <si>
+    <t>金州苑小区新城科技园整租</t>
+  </si>
+  <si>
+    <t>https://map.baidu.com/dir/%E7%83%BD%E7%81%AB%E7%A7%91%E6%8A%80%E5%A4%A7%E5%8E%A6/%E6%96%B0%E9%94%90%E5%9B%BD%E9%99%85%E5%85%AC%E5%AF%93/@13217615.675693527,3740680,16.94z?querytype=walk&amp;c=315&amp;sn=1$$9a1b8ffdb24f7df76c476000$$13218598,3739906$$%E7%83%BD%E7%81%AB%E7%A7%91%E6%8A%80%E5%A4%A7%E5%8E%A6$$0$$$$&amp;en=2$$$$$$%E6%96%B0%E9%94%90%E5%9B%BD%E9%99%85%E5%85%AC%E5%AF%93$$0$$$$&amp;sc=315&amp;ec=315&amp;pn=0&amp;rn=5&amp;version=6&amp;run=0&amp;spath_type=1&amp;da_src=shareurl</t>
+  </si>
+  <si>
+    <t>https://nj.zu.anjuke.com/ditu/?from=58_zf_list_top_wzl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>安居客</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +133,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,10 +167,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -139,6 +188,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>551851</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90D22DD-B64F-491F-A4D6-7BA3A2100E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="590550"/>
+          <a:ext cx="4790476" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,14 +558,56 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{6EFB9E31-2BB2-4282-9DC3-A79A452EA61E}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{C4CE4E65-8421-4BF9-82CE-61A8BDD3D36D}"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://map.baidu.com/dir/%E7%83%BD%E7%81%AB%E7%A7%91%E6%8A%80%E5%A4%A7%E5%8E%A6/%E6%96%B0%E9%94%90%E5%9B%BD%E9%99%85%E5%85%AC%E5%AF%93/@13217615.675693527,3740680,16.94z?querytype=walk&amp;c=315&amp;sn=1$$9a1b8ffdb24f7df76c476000$$13218598,3739906$$%E7%83%BD%E7%81%AB%E7%A7%91%E6%8A%80%E5%A4%A7%E5%8E%A6$$0$$$$&amp;en=2$$$$$$%E6%96%B0%E9%94%90%E5%9B%BD%E9%99%85%E5%85%AC%E5%AF%93$$0$$$$&amp;sc=315&amp;ec=315&amp;pn=0&amp;rn=5&amp;version=6&amp;run=0&amp;spath_type=1&amp;da_src=shareurl" xr:uid="{D770D768-DB18-4CE0-A1E0-5957414C680F}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{055E1110-7B3E-45AF-AFEC-A53388CC32CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/KnowdgeGraph/租房/南京找房.xlsx
+++ b/KnowdgeGraph/租房/南京找房.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\KnowdgeGraph\租房\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17FC350-35A5-4541-AAB7-53146B3F8BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB106C8-9750-496B-AFAA-596D522BB128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>浦口区：500-1200元/月</t>
   </si>
@@ -98,6 +98,9 @@
       <t>安居客</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nj.iguanyu.com/housetype/93</t>
   </si>
 </sst>
 </file>
@@ -195,15 +198,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>3076575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>551851</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>132940</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609001</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -226,7 +229,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591175" y="590550"/>
+          <a:off x="7705725" y="2047875"/>
           <a:ext cx="4790476" cy="3276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,6 +601,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -605,9 +613,10 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{C4CE4E65-8421-4BF9-82CE-61A8BDD3D36D}"/>
     <hyperlink ref="B7" r:id="rId3" display="https://map.baidu.com/dir/%E7%83%BD%E7%81%AB%E7%A7%91%E6%8A%80%E5%A4%A7%E5%8E%A6/%E6%96%B0%E9%94%90%E5%9B%BD%E9%99%85%E5%85%AC%E5%AF%93/@13217615.675693527,3740680,16.94z?querytype=walk&amp;c=315&amp;sn=1$$9a1b8ffdb24f7df76c476000$$13218598,3739906$$%E7%83%BD%E7%81%AB%E7%A7%91%E6%8A%80%E5%A4%A7%E5%8E%A6$$0$$$$&amp;en=2$$$$$$%E6%96%B0%E9%94%90%E5%9B%BD%E9%99%85%E5%85%AC%E5%AF%93$$0$$$$&amp;sc=315&amp;ec=315&amp;pn=0&amp;rn=5&amp;version=6&amp;run=0&amp;spath_type=1&amp;da_src=shareurl" xr:uid="{D770D768-DB18-4CE0-A1E0-5957414C680F}"/>
     <hyperlink ref="B8" r:id="rId4" xr:uid="{055E1110-7B3E-45AF-AFEC-A53388CC32CF}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{67D49044-39CA-45A6-B2B9-38CD9849B3C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>